--- a/figs/results.xlsx
+++ b/figs/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="2925" tabRatio="503" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="1050" tabRatio="503" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="67">
   <si>
     <t xml:space="preserve">Kullu </t>
   </si>
@@ -183,9 +183,6 @@
     <t>1206-093231</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -217,6 +214,15 @@
   </si>
   <si>
     <t>1206-131028</t>
+  </si>
+  <si>
+    <t>1206-215716</t>
+  </si>
+  <si>
+    <t>1207-181913</t>
+  </si>
+  <si>
+    <t>1208-100402</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -472,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,13 +555,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,6 +613,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,16 +647,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -613,22 +674,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,36 +689,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1111,10 +1147,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
@@ -1146,17 +1182,17 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="72" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="72">
         <f>E3+E4</f>
         <v>6548</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="73">
         <f>F3+F4</f>
         <v>0.47360000000000002</v>
       </c>
@@ -1169,12 +1205,12 @@
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="49"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="2">
         <v>6548</v>
       </c>
@@ -1184,10 +1220,10 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="2">
         <f>E5</f>
         <v>7277</v>
@@ -1204,74 +1240,74 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47" t="s">
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="72"/>
+      <c r="E10" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47" t="s">
+      <c r="H10" s="72"/>
+      <c r="I10" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47" t="s">
+      <c r="J10" s="72"/>
+      <c r="K10" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47" t="s">
+      <c r="L10" s="72"/>
+      <c r="M10" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="47"/>
+      <c r="N10" s="72"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="72" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="72">
         <f>D11+D12</f>
         <v>6548</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="73">
         <f>F11+F12</f>
         <v>0.47363471971066906</v>
       </c>
@@ -1279,14 +1315,14 @@
         <f>D11/(C$11+C$13)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="72">
         <f>H11+H12</f>
         <v>1198</v>
       </c>
       <c r="H11" s="2">
         <v>500</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="73">
         <f>J11+J12</f>
         <v>0.60966921119592876</v>
       </c>
@@ -1294,14 +1330,14 @@
         <f>H11/(G$11+G$13)</f>
         <v>0.2544529262086514</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="72">
         <f>L11+L12</f>
         <v>4642</v>
       </c>
       <c r="L11" s="2">
         <v>2530</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="73">
         <f>N11+N12</f>
         <v>0.4795454545454545</v>
       </c>
@@ -1311,43 +1347,43 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="2">
         <v>6548</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="6">
         <f t="shared" ref="F12:F13" si="0">D12/(C$11+C$13)</f>
         <v>0.47363471971066906</v>
       </c>
-      <c r="G12" s="47"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="2">
         <v>698</v>
       </c>
-      <c r="I12" s="49"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="6">
         <f t="shared" ref="J12:J13" si="1">H12/(G$11+G$13)</f>
         <v>0.35521628498727736</v>
       </c>
-      <c r="K12" s="47"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="2">
         <v>2112</v>
       </c>
-      <c r="M12" s="49"/>
+      <c r="M12" s="73"/>
       <c r="N12" s="6">
         <f t="shared" ref="N12:N13" si="2">L12/(K$11+K$13)</f>
         <v>0.21818181818181817</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="2">
         <f>D13</f>
         <v>7277</v>
@@ -1412,21 +1448,21 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53" t="s">
+      <c r="F15" s="71"/>
+      <c r="G15" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="53"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="2"/>
@@ -1436,7 +1472,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="51"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1579,30 +1615,30 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47" t="s">
+      <c r="D32" s="72"/>
+      <c r="E32" s="72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="47"/>
+      <c r="E33" s="72"/>
       <c r="H33" s="4" t="s">
         <v>24</v>
       </c>
@@ -1617,22 +1653,22 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="72">
         <f>C35+D35</f>
         <v>6548</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="2">
         <f>E35</f>
         <v>7277</v>
       </c>
-      <c r="H34" s="47" t="s">
+      <c r="H34" s="72" t="s">
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -1648,8 +1684,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="2">
         <v>0</v>
       </c>
@@ -1659,7 +1695,7 @@
       <c r="E35" s="2">
         <v>7277</v>
       </c>
-      <c r="H35" s="47"/>
+      <c r="H35" s="72"/>
       <c r="I35" s="4" t="s">
         <v>20</v>
       </c>
@@ -1673,20 +1709,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="72"/>
+      <c r="B36" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="73">
         <f>C37+D37</f>
         <v>0.47363471971066906</v>
       </c>
-      <c r="D36" s="49"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="6">
         <f>E37</f>
         <v>0.52636528028933094</v>
       </c>
-      <c r="H36" s="47"/>
+      <c r="H36" s="72"/>
       <c r="I36" s="4" t="s">
         <v>8</v>
       </c>
@@ -1700,8 +1736,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="6">
         <f>C35/($C34+$E34)</f>
         <v>0</v>
@@ -1714,7 +1750,7 @@
         <f>E35/($C34+$E34)</f>
         <v>0.52636528028933094</v>
       </c>
-      <c r="H37" s="47"/>
+      <c r="H37" s="72"/>
       <c r="I37" s="4" t="s">
         <v>9</v>
       </c>
@@ -1728,22 +1764,22 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="72">
         <f>C39+D39</f>
         <v>1198</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="2">
         <f>E39</f>
         <v>767</v>
       </c>
-      <c r="H38" s="47" t="s">
+      <c r="H38" s="72" t="s">
         <v>25</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -1759,8 +1795,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="2">
         <v>500</v>
       </c>
@@ -1770,7 +1806,7 @@
       <c r="E39" s="2">
         <v>767</v>
       </c>
-      <c r="H39" s="47"/>
+      <c r="H39" s="72"/>
       <c r="I39" s="4" t="s">
         <v>20</v>
       </c>
@@ -1784,20 +1820,20 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47" t="s">
+      <c r="A40" s="72"/>
+      <c r="B40" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="73">
         <f>C41+D41</f>
         <v>0.60966921119592876</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="6">
         <f>E41</f>
         <v>0.39033078880407124</v>
       </c>
-      <c r="H40" s="47"/>
+      <c r="H40" s="72"/>
       <c r="I40" s="4" t="s">
         <v>8</v>
       </c>
@@ -1811,8 +1847,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="6">
         <f>C39/($C38+$E38)</f>
         <v>0.2544529262086514</v>
@@ -1825,7 +1861,7 @@
         <f>E39/($C38+$E38)</f>
         <v>0.39033078880407124</v>
       </c>
-      <c r="H41" s="47"/>
+      <c r="H41" s="72"/>
       <c r="I41" s="4" t="s">
         <v>9</v>
       </c>
@@ -1839,22 +1875,22 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="72">
         <f>C43+D43</f>
         <v>4642</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="2">
         <f>E43</f>
         <v>5038</v>
       </c>
-      <c r="H42" s="47" t="s">
+      <c r="H42" s="72" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -1870,8 +1906,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="2">
         <v>2530</v>
       </c>
@@ -1881,7 +1917,7 @@
       <c r="E43" s="2">
         <v>5038</v>
       </c>
-      <c r="H43" s="47"/>
+      <c r="H43" s="72"/>
       <c r="I43" s="4" t="s">
         <v>20</v>
       </c>
@@ -1895,20 +1931,20 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47" t="s">
+      <c r="A44" s="72"/>
+      <c r="B44" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="73">
         <f>C45+D45</f>
         <v>0.4795454545454545</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="73"/>
       <c r="E44" s="6">
         <f>E45</f>
         <v>0.5204545454545455</v>
       </c>
-      <c r="H44" s="47"/>
+      <c r="H44" s="72"/>
       <c r="I44" s="4" t="s">
         <v>8</v>
       </c>
@@ -1922,8 +1958,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="6">
         <f>C43/($C42+$E42)</f>
         <v>0.26136363636363635</v>
@@ -1936,7 +1972,7 @@
         <f>E43/($C42+$E42)</f>
         <v>0.5204545454545455</v>
       </c>
-      <c r="H45" s="47"/>
+      <c r="H45" s="72"/>
       <c r="I45" s="4" t="s">
         <v>9</v>
       </c>
@@ -1951,11 +1987,39 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H34:H37"/>
     <mergeCell ref="A38:A41"/>
@@ -1968,39 +2032,11 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="H38:H41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2023,21 +2059,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="75"/>
+      <c r="E1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="75"/>
+      <c r="G1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="54"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="76" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -2066,7 +2102,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="76"/>
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -2093,63 +2129,63 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="75">
         <v>0.87</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54">
+      <c r="D4" s="75"/>
+      <c r="E4" s="75">
         <v>0.8</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75">
         <v>0.86</v>
       </c>
-      <c r="H4" s="54"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="76"/>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="75"/>
+      <c r="G5" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="54"/>
+      <c r="H5" s="75"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="76"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54" t="s">
+      <c r="F6" s="75"/>
+      <c r="G6" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="54"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="76" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2175,7 +2211,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="76"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -2199,19 +2235,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A4:A6"/>
@@ -2222,6 +2252,12 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2232,7 +2268,7 @@
   <dimension ref="A1:AO449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,54 +2286,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="63"/>
+      <c r="A1" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="85"/>
     </row>
     <row r="2" spans="1:41" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="79"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -2324,33 +2360,33 @@
       <c r="AO2"/>
     </row>
     <row r="3" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="59" t="s">
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="61"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="82"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -2377,8 +2413,8 @@
       <c r="AO3"/>
     </row>
     <row r="4" spans="1:41" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>61</v>
+      <c r="A4" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>41</v>
@@ -2454,22 +2490,31 @@
       <c r="AO4"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="43">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0.83</v>
+      </c>
+      <c r="D5" s="43">
+        <v>0.69</v>
+      </c>
+      <c r="E5" s="57">
+        <v>0.8</v>
+      </c>
       <c r="F5" s="43">
         <v>0.97750000000000004</v>
       </c>
       <c r="G5" s="43">
         <v>0.82</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="61">
         <v>0.81</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="57">
         <v>0.78</v>
       </c>
       <c r="J5" s="43">
@@ -2490,66 +2535,82 @@
       <c r="O5" s="43">
         <v>0.84</v>
       </c>
-      <c r="P5" s="87">
+      <c r="P5" s="56">
         <v>0.77</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="57">
         <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="89">
+      <c r="B6" s="43">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="C6" s="56">
         <v>0.86</v>
       </c>
       <c r="D6" s="43">
         <v>0.76</v>
       </c>
+      <c r="E6" s="24">
+        <v>0.75</v>
+      </c>
       <c r="F6" s="43">
         <v>0.99670000000000003</v>
       </c>
-      <c r="G6" s="87">
+      <c r="G6" s="56">
         <v>0.86</v>
       </c>
       <c r="H6" s="43">
         <v>0.76</v>
       </c>
+      <c r="I6" s="24">
+        <v>0.75</v>
+      </c>
       <c r="J6" s="43">
         <v>0.99660000000000004</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="56">
         <v>0.86</v>
       </c>
-      <c r="L6" s="87">
+      <c r="L6" s="56">
         <v>0.76</v>
       </c>
-      <c r="M6" s="24" t="s">
-        <v>53</v>
+      <c r="M6" s="57">
+        <v>0.75</v>
       </c>
       <c r="N6" s="43">
         <v>0.99670000000000003</v>
       </c>
-      <c r="O6" s="87">
+      <c r="O6" s="56">
         <v>0.86</v>
       </c>
       <c r="P6" s="43">
         <v>0.76</v>
       </c>
-      <c r="Q6" s="24" t="s">
-        <v>53</v>
+      <c r="Q6" s="57">
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:41" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="44">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0.79</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0.79</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0.73</v>
+      </c>
       <c r="F7" s="44">
         <v>0.99470000000000003</v>
       </c>
@@ -2612,90 +2673,92 @@
       <c r="AO7"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="65"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="88"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="67"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="91"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="85"/>
+    </row>
+    <row r="11" spans="1:41" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="63"/>
-    </row>
-    <row r="11" spans="1:41" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="56" t="s">
+      <c r="B11" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="56" t="s">
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="79"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
@@ -2722,37 +2785,37 @@
       <c r="AO11"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="82"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="61"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
-        <v>61</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>41</v>
@@ -2804,20 +2867,20 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="49" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="43">
-        <v>0.94669999999999999</v>
-      </c>
-      <c r="C14" s="90">
-        <v>0.87</v>
-      </c>
-      <c r="D14" s="43">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="C14" s="62">
         <v>0.8</v>
       </c>
-      <c r="E14" s="91">
-        <v>0.86</v>
+      <c r="D14" s="62">
+        <v>0.69</v>
+      </c>
+      <c r="E14" s="64">
+        <v>0.73</v>
       </c>
       <c r="F14" s="43">
         <v>0.98170000000000002</v>
@@ -2825,7 +2888,7 @@
       <c r="G14" s="43">
         <v>0.81</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="56">
         <v>0.76</v>
       </c>
       <c r="I14" s="24">
@@ -2834,75 +2897,97 @@
       <c r="J14" s="43">
         <v>0.98650000000000004</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
+      <c r="K14" s="43">
+        <v>0.79</v>
+      </c>
+      <c r="L14" s="43">
+        <v>0.61</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="N14" s="43">
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="O14" s="43">
+        <v>0.82</v>
+      </c>
+      <c r="P14" s="43">
+        <v>0.72</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="49" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="43">
-        <v>0.99680000000000002</v>
-      </c>
-      <c r="C15" s="43">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="C15" s="56">
         <v>0.85</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="56">
         <v>0.74</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="57">
         <v>0.78</v>
       </c>
       <c r="F15" s="43">
         <v>0.99580000000000002</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="56">
         <v>0.85</v>
       </c>
       <c r="H15" s="43">
         <v>0.74</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="57">
         <v>0.78</v>
       </c>
       <c r="J15" s="43">
         <v>0.99580000000000002</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="56">
         <v>0.85</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="56">
         <v>0.74</v>
       </c>
-      <c r="M15" s="88">
+      <c r="M15" s="57">
         <v>0.78</v>
       </c>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43">
+      <c r="N15" s="43">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="O15" s="56">
         <v>0.85</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="56">
         <v>0.74</v>
       </c>
-      <c r="Q15" s="88">
+      <c r="Q15" s="57">
         <v>0.78</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="44">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="C16" s="44">
-        <v>0.78</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="C16" s="65">
+        <v>0.76</v>
+      </c>
+      <c r="D16" s="65">
+        <v>0.66</v>
+      </c>
+      <c r="E16" s="66">
+        <v>0.73</v>
+      </c>
       <c r="F16" s="44">
         <v>0.99650000000000005</v>
       </c>
@@ -2918,13 +3003,27 @@
       <c r="J16" s="44">
         <v>0.99970000000000003</v>
       </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="45"/>
+      <c r="K16" s="44">
+        <v>0.79</v>
+      </c>
+      <c r="L16" s="44">
+        <v>0.63</v>
+      </c>
+      <c r="M16" s="45">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N16" s="44">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="O16" s="44">
+        <v>0.81</v>
+      </c>
+      <c r="P16" s="44">
+        <v>0.73</v>
+      </c>
+      <c r="Q16" s="45">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17"/>
@@ -2965,11 +3064,15 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+      <c r="A19" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
@@ -2984,11 +3087,15 @@
       <c r="Q19"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="A20" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
@@ -3003,11 +3110,21 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="A21" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
@@ -3022,11 +3139,21 @@
       <c r="Q21"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
+      <c r="A22" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="43">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="C22" s="61">
+        <v>0.87</v>
+      </c>
+      <c r="D22" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="63">
+        <v>0.86</v>
+      </c>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
@@ -3041,11 +3168,16 @@
       <c r="Q22"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
+      <c r="A23" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="43">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="C23" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="D23" s="43"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
@@ -3060,11 +3192,17 @@
       <c r="Q23"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
+      <c r="A24" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="44">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0.78</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -11154,13 +11292,9 @@
       <c r="Q449"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A10:Q10"/>
+  <mergeCells count="20">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A8:Q9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
     <mergeCell ref="N12:Q12"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="J3:M3"/>
@@ -11174,6 +11308,11 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11182,10 +11321,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11204,26 +11343,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
+      <c r="A1" s="53"/>
       <c r="B1" s="20"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="78" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="78" t="s">
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="95" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -11261,7 +11400,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="18" t="s">
         <v>49</v>
       </c>
@@ -11272,7 +11411,7 @@
         <v>0.58468750000000003</v>
       </c>
       <c r="E3" s="27">
-        <f t="shared" ref="E3:E17" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E19" si="0">D3-C3</f>
         <v>5.7685185185185284E-2</v>
       </c>
       <c r="F3" s="28">
@@ -11282,7 +11421,7 @@
         <v>0.59534722222222225</v>
       </c>
       <c r="H3" s="27">
-        <f t="shared" ref="H3:H17" si="1">G3-F3</f>
+        <f t="shared" ref="H3:H16" si="1">G3-F3</f>
         <v>3.5185185185185874E-3</v>
       </c>
       <c r="I3" s="28">
@@ -11292,12 +11431,12 @@
         <v>0.59592592592592586</v>
       </c>
       <c r="K3" s="27">
-        <f t="shared" ref="K3:K17" si="2">J3-I3</f>
+        <f t="shared" ref="K3:K19" si="2">J3-I3</f>
         <v>9.2592592592533052E-5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="18" t="s">
         <v>50</v>
       </c>
@@ -11333,7 +11472,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
@@ -11369,7 +11508,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
@@ -11390,7 +11529,7 @@
         <v>0.51623842592592595</v>
       </c>
       <c r="H6" s="27">
-        <f t="shared" si="1"/>
+        <f>G6-F6</f>
         <v>3.263888888888955E-3</v>
       </c>
       <c r="I6" s="28">
@@ -11405,275 +11544,451 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="C7" s="28">
+        <v>1.0069444444444444E-3</v>
+      </c>
+      <c r="D7" s="29">
+        <v>6.6805555555555562E-2</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>6.5798611111111113E-2</v>
+      </c>
+      <c r="F7" s="28">
+        <v>7.4201388888888886E-2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>7.7557870370370374E-2</v>
+      </c>
+      <c r="H7" s="27">
+        <f>G7-F7</f>
+        <v>3.3564814814814881E-3</v>
+      </c>
+      <c r="I7" s="28">
+        <v>7.9895833333333333E-2</v>
+      </c>
+      <c r="J7" s="29">
+        <v>8.1469907407407408E-2</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="2"/>
+        <v>1.574074074074075E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="E8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.91982638888888879</v>
+      </c>
+      <c r="D8" s="29">
+        <v>0.98322916666666671</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>6.3402777777777919E-2</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0.99003472222222222</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.99326388888888895</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" ref="H8:H9" si="3">G8-F8</f>
+        <v>3.2291666666667274E-3</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0.99685185185185177</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0.9986342592592593</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="2"/>
+        <v>1.782407407407538E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="35">
-        <f>AVERAGE(E2:E8)</f>
-        <v>5.0590277777777783E-2</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="35">
-        <f>AVERAGE(H2:H8)</f>
-        <v>3.3379629629629757E-3</v>
-      </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="35">
-        <f>AVERAGE(K2:K8)</f>
-        <v>1.2962962962962648E-3</v>
+      <c r="A9" s="96"/>
+      <c r="B9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0.48791666666666672</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="0"/>
+        <v>4.3472222222222301E-2</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0.49436342592592591</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0.49793981481481481</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="3"/>
+        <v>3.5763888888888928E-3</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0.50236111111111115</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0.50482638888888887</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="2"/>
+        <v>2.4652777777777191E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="E10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A10" s="96"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="35">
+        <f>AVERAGE(E2:E9)</f>
+        <v>5.3203125000000032E-2</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="35">
+        <f>AVERAGE(H2:H9)</f>
+        <v>3.3564814814814985E-3</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="35">
+        <f>AVERAGE(K2:K9)</f>
+        <v>1.537905092592582E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="E11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B12" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C12" s="38">
         <v>5.2199074074074066E-3</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D12" s="39">
         <v>8.5995370370370357E-3</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E12" s="34">
         <f t="shared" si="0"/>
         <v>3.3796296296296291E-3</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F12" s="38">
         <v>5.7905092592592598E-2</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G12" s="39">
         <v>6.4386574074074068E-2</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H12" s="34">
         <f t="shared" si="1"/>
         <v>6.48148148148147E-3</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I12" s="38">
         <v>6.8310185185185182E-2</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J12" s="39">
         <v>7.0856481481481479E-2</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K12" s="34">
         <f t="shared" si="2"/>
         <v>2.5462962962962965E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="18" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="98"/>
+      <c r="B13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C13" s="28">
         <v>0.52023148148148146</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D13" s="29">
         <v>0.52510416666666659</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>4.8726851851851327E-3</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F13" s="28">
         <v>0.58479166666666671</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G13" s="29">
         <v>0.59159722222222222</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H13" s="27">
         <f t="shared" si="1"/>
         <v>6.8055555555555092E-3</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I13" s="28">
         <v>0.59539351851851852</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J13" s="29">
         <v>0.59577546296296291</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K13" s="27">
         <f t="shared" si="2"/>
         <v>3.8194444444439313E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="18" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="98"/>
+      <c r="B14" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C14" s="28">
         <v>0.64236111111111105</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D14" s="29">
         <v>0.6461689814814815</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>3.8078703703704475E-3</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F14" s="28">
         <v>0.68982638888888881</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G14" s="29">
         <v>0.69658564814814816</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H14" s="27">
         <f t="shared" si="1"/>
         <v>6.7592592592593537E-3</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I14" s="28">
         <v>0.70034722222222223</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J14" s="29">
         <v>0.70526620370370363</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K14" s="27">
         <f t="shared" si="2"/>
         <v>4.9189814814813992E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="18" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="98"/>
+      <c r="B15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C15" s="28">
         <v>0.53849537037037043</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D15" s="29">
         <v>0.54150462962962964</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>3.0092592592592116E-3</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F15" s="28">
         <v>0.58422453703703703</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G15" s="29">
         <v>0.5896527777777778</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H15" s="27">
         <f t="shared" si="1"/>
         <v>5.4282407407407751E-3</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I15" s="28">
         <v>0.59320601851851851</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J15" s="29">
         <v>0.59619212962962964</v>
       </c>
-      <c r="K14" s="27">
-        <f>J14-I14</f>
+      <c r="K15" s="27">
+        <f>J15-I15</f>
         <v>2.9861111111111338E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="18" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="98"/>
+      <c r="B16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C16" s="28">
         <v>0.43476851851851855</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D16" s="29">
         <v>0.43965277777777773</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E16" s="27">
         <f t="shared" si="0"/>
         <v>4.8842592592591716E-3</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F16" s="28">
         <v>0.50653935185185184</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G16" s="29">
         <v>0.51217592592592587</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H16" s="27">
         <f t="shared" si="1"/>
         <v>5.63657407407403E-3</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I16" s="28">
         <v>0.51634259259259263</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J16" s="29">
         <v>0.51678240740740744</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K16" s="27">
         <f t="shared" si="2"/>
         <v>4.3981481481480955E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="E17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42">
-        <f>AVERAGE(E11:E17)</f>
-        <v>3.9907407407407183E-3</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42">
-        <f>AVERAGE(H11:H17)</f>
-        <v>6.2222222222222279E-3</v>
-      </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42">
-        <f>AVERAGE(K11:K17)</f>
-        <v>2.2546296296296064E-3</v>
+      <c r="A17" s="98"/>
+      <c r="B17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0.99383101851851852</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0.99880787037037033</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>4.9768518518518157E-3</v>
+      </c>
+      <c r="F17" s="28">
+        <v>6.6909722222222232E-2</v>
+      </c>
+      <c r="G17" s="29">
+        <v>7.3599537037037033E-2</v>
+      </c>
+      <c r="H17" s="27">
+        <f>G17-F17</f>
+        <v>6.6898148148148012E-3</v>
+      </c>
+      <c r="I17" s="28">
+        <v>7.7662037037037043E-2</v>
+      </c>
+      <c r="J17" s="29">
+        <v>7.9687500000000008E-2</v>
+      </c>
+      <c r="K17" s="27">
+        <f t="shared" si="2"/>
+        <v>2.025462962962965E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="98"/>
+      <c r="B18" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0.91289351851851863</v>
+      </c>
+      <c r="D18" s="29">
+        <v>0.91748842592592583</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>4.5949074074072005E-3</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.98340277777777774</v>
+      </c>
+      <c r="G18" s="29">
+        <v>0.98934027777777767</v>
+      </c>
+      <c r="H18" s="27">
+        <f t="shared" ref="H18:H19" si="4">G18-F18</f>
+        <v>5.9374999999999289E-3</v>
+      </c>
+      <c r="I18" s="28">
+        <v>0.99341435185185178</v>
+      </c>
+      <c r="J18" s="29">
+        <v>0.99649305555555545</v>
+      </c>
+      <c r="K18" s="27">
+        <f t="shared" si="2"/>
+        <v>3.0787037037036669E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0.44283564814814813</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>3.2523148148147496E-3</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.48796296296296293</v>
+      </c>
+      <c r="G19" s="29">
+        <v>0.49414351851851851</v>
+      </c>
+      <c r="H19" s="27">
+        <f t="shared" si="4"/>
+        <v>6.180555555555578E-3</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0.49797453703703703</v>
+      </c>
+      <c r="J19" s="29">
+        <v>0.50222222222222224</v>
+      </c>
+      <c r="K19" s="27">
+        <f t="shared" si="2"/>
+        <v>4.2476851851852016E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42">
+        <f>AVERAGE(E12:E19)</f>
+        <v>4.0972222222221697E-3</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42">
+        <f>AVERAGE(H12:H19)</f>
+        <v>6.2398726851851808E-3</v>
+      </c>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42">
+        <f>AVERAGE(K12:K19)</f>
+        <v>2.5781249999999832E-3</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E21" s="27"/>
@@ -11683,48 +11998,98 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E22" s="27"/>
       <c r="H22" s="27"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="27"/>
+      <c r="H24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A19"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:E2 E3:E22">
-    <cfRule type="timePeriod" dxfId="13" priority="7" timePeriod="lastWeek">
+  <conditionalFormatting sqref="C2:E2 E3:E24">
+    <cfRule type="timePeriod" dxfId="14" priority="15" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(C2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(C2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H8 H10:H17 H19:H22">
-    <cfRule type="timePeriod" dxfId="12" priority="6" timePeriod="lastWeek">
+  <conditionalFormatting sqref="H21:H24 H2:H7 H11:H17">
+    <cfRule type="timePeriod" dxfId="13" priority="14" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(H2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(H2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K8 K10:K17 K19:K21">
-    <cfRule type="timePeriod" dxfId="11" priority="5" timePeriod="lastWeek">
+  <conditionalFormatting sqref="K21:K23 K2:K7 K11:K17">
+    <cfRule type="timePeriod" dxfId="12" priority="13" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(K2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(K2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="timePeriod" dxfId="11" priority="12" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(H10,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(H10,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="timePeriod" dxfId="10" priority="11" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(K10,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(K10,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="timePeriod" dxfId="9" priority="10" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(H20,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(H20,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="timePeriod" dxfId="8" priority="9" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(K20,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(K20,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="timePeriod" dxfId="7" priority="8" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(H18,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(H18,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="timePeriod" dxfId="6" priority="7" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(H19,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(H19,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="timePeriod" dxfId="5" priority="6" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(K18,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(K18,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="timePeriod" dxfId="4" priority="5" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(K19,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(K19,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(H8,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(H8,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="timePeriod" dxfId="10" priority="4" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(H9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(H9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="timePeriod" dxfId="9" priority="3" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(K9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(K9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(K8,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(K8,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="timePeriod" dxfId="8" priority="2" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(H18,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(H18,0)&lt;(WEEKDAY(TODAY())+7))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="timePeriod" dxfId="7" priority="1" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(K18,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(K18,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(K9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(K9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/figs/results.xlsx
+++ b/figs/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="1050" tabRatio="503" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="1050" tabRatio="503" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="83">
   <si>
     <t xml:space="preserve">Kullu </t>
   </si>
@@ -186,16 +186,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>TOA</t>
-  </si>
-  <si>
     <t>standardize</t>
-  </si>
-  <si>
-    <t>Linear filling</t>
-  </si>
-  <si>
-    <t>Forward filling</t>
   </si>
   <si>
     <t>Pretrained</t>
@@ -224,12 +215,80 @@
   <si>
     <t>1208-100402</t>
   </si>
+  <si>
+    <t>1210-220956</t>
+  </si>
+  <si>
+    <t>Forward filling  [hyperparameters by grid search]</t>
+  </si>
+  <si>
+    <t>Forward filling [hyperparameters determined]</t>
+  </si>
+  <si>
+    <t>Linear filling [hyperparameters determined]</t>
+  </si>
+  <si>
+    <t>1212-010141</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1211-174911</t>
+  </si>
+  <si>
+    <t>forward filling [with wrong features]</t>
+  </si>
+  <si>
+    <t>1213-010458</t>
+  </si>
+  <si>
+    <t>1213-052354</t>
+  </si>
+  <si>
+    <t>Linear filling [hyperparameters by grig search]</t>
+  </si>
+  <si>
+    <t>reflectance</t>
+  </si>
+  <si>
+    <r>
+      <t>After</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Corbel Light"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Svc</t>
+  </si>
+  <si>
+    <t>Rfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before </t>
+  </si>
+  <si>
+    <t>1213-215737</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">models </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +346,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Corbel Light"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -477,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -695,6 +774,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,6 +997,1036 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scaling methods'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>svc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'scaling methods'!$G$22:$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>test_kullu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test_mandi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_shimla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scaling methods'!$G$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9FA-44E8-8C45-E72985FBF4B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scaling methods'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rfc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'scaling methods'!$G$22:$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>test_kullu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test_mandi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test_shimla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scaling methods'!$G$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9FA-44E8-8C45-E72985FBF4B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scaling methods'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mlp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'scaling methods'!$G$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D9FA-44E8-8C45-E72985FBF4B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="226272648"/>
+        <c:axId val="226271664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="226272648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226271664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="226271664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226272648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242094</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34131</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1128,25 +2294,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="4"/>
-    <col min="9" max="9" width="15.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="8.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" style="4"/>
+    <col min="9" max="9" width="15.54296875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>21</v>
       </c>
@@ -1166,7 +2332,7 @@
       </c>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1181,7 +2347,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="72" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +2370,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="72"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -1219,7 +2385,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="72" t="s">
         <v>9</v>
       </c>
@@ -1239,7 +2405,7 @@
         <v>0.52639999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
         <v>24</v>
       </c>
@@ -1263,7 +2429,7 @@
       <c r="M9" s="72"/>
       <c r="N9" s="72"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="72" t="s">
         <v>21</v>
       </c>
@@ -1293,7 +2459,7 @@
       </c>
       <c r="N10" s="72"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="72" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +2512,7 @@
         <v>0.26136363636363635</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="72"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
@@ -1379,7 +2545,7 @@
         <v>0.21818181818181817</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="72" t="s">
         <v>9</v>
       </c>
@@ -1430,7 +2596,7 @@
         <v>0.5204545454545455</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1446,7 +2612,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="68" t="s">
         <v>29</v>
@@ -1470,7 +2636,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="69"/>
       <c r="C16" s="10" t="s">
@@ -1498,7 +2664,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1527,7 +2693,7 @@
         <v>0.26136363636363635</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +2722,7 @@
         <v>0.21818181818181817</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +2751,7 @@
         <v>0.4795454545454545</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
@@ -1614,7 +2780,7 @@
         <v>0.5204545454545455</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="74" t="s">
         <v>24</v>
       </c>
@@ -1629,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="74"/>
       <c r="B33" s="72"/>
       <c r="C33" s="2" t="s">
@@ -1652,7 +2818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="72" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="72"/>
       <c r="B35" s="72"/>
       <c r="C35" s="2">
@@ -1708,7 +2874,7 @@
         <v>0.47363471971066906</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="72"/>
       <c r="B36" s="72" t="s">
         <v>23</v>
@@ -1735,7 +2901,7 @@
         <v>0.47363471971066906</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="72"/>
       <c r="B37" s="72"/>
       <c r="C37" s="6">
@@ -1763,7 +2929,7 @@
         <v>0.52636528028933094</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="72" t="s">
         <v>25</v>
       </c>
@@ -1794,7 +2960,7 @@
         <v>0.2544529262086514</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="72"/>
       <c r="B39" s="72"/>
       <c r="C39" s="2">
@@ -1819,7 +2985,7 @@
         <v>0.35521628498727736</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="72"/>
       <c r="B40" s="72" t="s">
         <v>23</v>
@@ -1846,7 +3012,7 @@
         <v>0.60966921119592876</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="72"/>
       <c r="B41" s="72"/>
       <c r="C41" s="6">
@@ -1874,7 +3040,7 @@
         <v>0.39033078880407124</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="72" t="s">
         <v>26</v>
       </c>
@@ -1905,7 +3071,7 @@
         <v>0.26136363636363635</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="72"/>
       <c r="B43" s="72"/>
       <c r="C43" s="2">
@@ -1930,7 +3096,7 @@
         <v>0.21818181818181817</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="72"/>
       <c r="B44" s="72" t="s">
         <v>23</v>
@@ -1957,7 +3123,7 @@
         <v>0.4795454545454545</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="72"/>
       <c r="B45" s="72"/>
       <c r="C45" s="6">
@@ -2051,14 +3217,14 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C1" s="75" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +3238,7 @@
       </c>
       <c r="H1" s="75"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="76" t="s">
         <v>7</v>
       </c>
@@ -2101,7 +3267,7 @@
         <v>4641</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="76"/>
       <c r="B3" t="s">
         <v>9</v>
@@ -2128,7 +3294,7 @@
         <v>5036</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
@@ -2148,7 +3314,7 @@
       </c>
       <c r="H4" s="75"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="76"/>
       <c r="B5" t="s">
         <v>12</v>
@@ -2166,7 +3332,7 @@
       </c>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="76"/>
       <c r="B6" t="s">
         <v>13</v>
@@ -2184,7 +3350,7 @@
       </c>
       <c r="H6" s="75"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
         <v>4</v>
       </c>
@@ -2210,7 +3376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
       <c r="B8" t="s">
         <v>6</v>
@@ -2234,7 +3400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="75" t="s">
         <v>17</v>
       </c>
@@ -2265,29 +3431,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO449"/>
+  <dimension ref="A1:AO459"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="H37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="18" customWidth="1"/>
-    <col min="2" max="4" width="10.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="24" customWidth="1"/>
-    <col min="6" max="8" width="10.7109375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="24" customWidth="1"/>
-    <col min="10" max="12" width="10.7109375" style="17" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="24" customWidth="1"/>
-    <col min="14" max="16" width="10.7109375" style="17" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="24" customWidth="1"/>
-    <col min="18" max="21" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7265625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7265625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7265625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" style="24" customWidth="1"/>
+    <col min="18" max="21" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" s="83" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
@@ -2306,12 +3476,12 @@
       <c r="P1" s="84"/>
       <c r="Q1" s="85"/>
     </row>
-    <row r="2" spans="1:41" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -2359,9 +3529,9 @@
       <c r="AN2"/>
       <c r="AO2"/>
     </row>
-    <row r="3" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>53</v>
@@ -2370,19 +3540,19 @@
       <c r="D3" s="81"/>
       <c r="E3" s="82"/>
       <c r="F3" s="80" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
       <c r="I3" s="82"/>
       <c r="J3" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K3" s="81"/>
       <c r="L3" s="81"/>
       <c r="M3" s="82"/>
       <c r="N3" s="80" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O3" s="81"/>
       <c r="P3" s="81"/>
@@ -2412,9 +3582,9 @@
       <c r="AN3"/>
       <c r="AO3"/>
     </row>
-    <row r="4" spans="1:41" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>41</v>
@@ -2489,7 +3659,7 @@
       <c r="AN4"/>
       <c r="AO4"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>38</v>
       </c>
@@ -2508,13 +3678,13 @@
       <c r="F5" s="43">
         <v>0.97750000000000004</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="104">
         <v>0.82</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="106">
         <v>0.81</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="107">
         <v>0.78</v>
       </c>
       <c r="J5" s="43">
@@ -2542,7 +3712,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
         <v>39</v>
       </c>
@@ -2561,13 +3731,13 @@
       <c r="F6" s="43">
         <v>0.99670000000000003</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="106">
         <v>0.86</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="104">
         <v>0.76</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="105">
         <v>0.75</v>
       </c>
       <c r="J6" s="43">
@@ -2595,7 +3765,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>40</v>
       </c>
@@ -2614,13 +3784,13 @@
       <c r="F7" s="44">
         <v>0.99470000000000003</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="108">
         <v>0.78</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="108">
         <v>0.68</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="109">
         <v>0.74</v>
       </c>
       <c r="J7" s="44">
@@ -2672,7 +3842,7 @@
       <c r="AN7"/>
       <c r="AO7"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="86"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
@@ -2691,7 +3861,7 @@
       <c r="P8" s="87"/>
       <c r="Q8" s="88"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="89"/>
       <c r="B9" s="90"/>
       <c r="C9" s="90"/>
@@ -2710,9 +3880,9 @@
       <c r="P9" s="90"/>
       <c r="Q9" s="91"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="83" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -2731,12 +3901,12 @@
       <c r="P10" s="84"/>
       <c r="Q10" s="85"/>
     </row>
-    <row r="11" spans="1:41" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
@@ -2754,7 +3924,7 @@
       <c r="L11" s="78"/>
       <c r="M11" s="79"/>
       <c r="N11" s="77" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11" s="78"/>
       <c r="P11" s="78"/>
@@ -2784,9 +3954,9 @@
       <c r="AN11"/>
       <c r="AO11"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>53</v>
@@ -2795,27 +3965,27 @@
       <c r="D12" s="81"/>
       <c r="E12" s="82"/>
       <c r="F12" s="80" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G12" s="81"/>
       <c r="H12" s="81"/>
       <c r="I12" s="82"/>
       <c r="J12" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
       <c r="M12" s="82"/>
       <c r="N12" s="80" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O12" s="81"/>
       <c r="P12" s="81"/>
       <c r="Q12" s="82"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>41</v>
@@ -2866,7 +4036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
         <v>38</v>
       </c>
@@ -2919,7 +4089,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="49" t="s">
         <v>39</v>
       </c>
@@ -2972,7 +4142,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
         <v>40</v>
       </c>
@@ -3025,26 +4195,26 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -3063,198 +4233,271 @@
       <c r="P18"/>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="101"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="79"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="82"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="F22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="43">
-        <v>0.94669999999999999</v>
-      </c>
-      <c r="C22" s="61">
-        <v>0.87</v>
-      </c>
-      <c r="D22" s="62">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="63">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43">
+        <v>0.83</v>
+      </c>
+      <c r="D23" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43">
         <v>0.86</v>
       </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="H23" s="61">
+        <v>0.85</v>
+      </c>
+      <c r="I23" s="57">
+        <v>0.81</v>
+      </c>
+      <c r="J23" s="43"/>
+      <c r="K23" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="43">
-        <v>0.99680000000000002</v>
-      </c>
-      <c r="C23" s="43">
+      <c r="B24" s="43"/>
+      <c r="C24" s="56">
         <v>0.85</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="D24" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="57">
+        <v>0.79</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="56">
+        <v>0.85</v>
+      </c>
+      <c r="H24" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="I24" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="43"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="57"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="44">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="C24" s="44">
-        <v>0.78</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="45"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -3273,140 +4516,272 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="101"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="79"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="82"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="62">
+        <v>0.83</v>
+      </c>
+      <c r="D32" s="61">
+        <v>0.79</v>
+      </c>
+      <c r="E32" s="64">
+        <v>0.65</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="H32" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="I32" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="J32" s="43"/>
+      <c r="K32" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43">
+        <v>0.86</v>
+      </c>
+      <c r="P32" s="43">
+        <v>0.71</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="D33" s="102">
+        <v>0.73</v>
+      </c>
+      <c r="E33" s="57">
+        <v>0.78</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="H33" s="43">
+        <v>0.73</v>
+      </c>
+      <c r="I33" s="57">
+        <v>0.81</v>
+      </c>
+      <c r="J33" s="43"/>
+      <c r="K33" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" s="43"/>
+      <c r="O33" s="56">
+        <v>0.86</v>
+      </c>
+      <c r="P33" s="102">
+        <v>0.73</v>
+      </c>
+      <c r="Q33" s="57">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="65">
+        <v>0.76</v>
+      </c>
+      <c r="D34" s="65">
+        <v>0.69</v>
+      </c>
+      <c r="E34" s="66">
+        <v>0.69</v>
+      </c>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="44"/>
+      <c r="K34" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44">
+        <v>0.82</v>
+      </c>
+      <c r="P34" s="67">
+        <v>0.74</v>
+      </c>
+      <c r="Q34" s="45">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -3425,7 +4800,7 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -3444,7 +4819,7 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -3463,7 +4838,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3482,7 +4857,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -3492,17 +4867,21 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
+      <c r="J39" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="79"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40"/>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -3511,130 +4890,287 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
+      <c r="J40" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="82"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
+      <c r="S40" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
+      <c r="J41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
+      <c r="S41" t="s">
+        <v>81</v>
+      </c>
+      <c r="T41" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="U41" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V41" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A42" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="60"/>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="43"/>
+      <c r="K42" s="112">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="L42" s="113">
+        <v>0.9516</v>
+      </c>
+      <c r="M42" s="114">
+        <v>0.54900000000000004</v>
+      </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
-      <c r="Q42"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
+      <c r="S42" t="s">
+        <v>38</v>
+      </c>
+      <c r="T42" s="112">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="U42" s="113">
+        <v>0.9516</v>
+      </c>
+      <c r="V42" s="114">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A43" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
+      <c r="I43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="43"/>
+      <c r="K43" s="113">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="L43" s="112">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="M43" s="115">
+        <v>0.88580000000000003</v>
+      </c>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
-      <c r="Q43"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
+      <c r="S43" t="s">
+        <v>39</v>
+      </c>
+      <c r="T43" s="116">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="U43" s="116">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="V43" s="117">
+        <v>0.34789999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A44" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="43">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="C44" s="61">
+        <v>0.87</v>
+      </c>
+      <c r="D44" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="E44" s="63">
+        <v>0.86</v>
+      </c>
       <c r="F44"/>
       <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
+      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="44"/>
+      <c r="K44" s="116">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="L44" s="116">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="M44" s="117">
+        <v>0.34789999999999999</v>
+      </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
-      <c r="Q44"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
+      <c r="S44" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0.9677</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0.40029999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A45" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="43">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="C45" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="D45" s="43">
+        <v>0.74</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0.73</v>
+      </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="I45"/>
+      <c r="I45" t="s">
+        <v>6</v>
+      </c>
       <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
+      <c r="K45" s="1">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.91320000000000001</v>
+      </c>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A46" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="44">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="C46" s="44">
+        <v>0.78</v>
+      </c>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
       <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
+      <c r="K46" s="1">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.9677</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.40029999999999999</v>
+      </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S46" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="T46" s="75"/>
+      <c r="U46" s="75"/>
+      <c r="V46" s="75"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -3643,22 +5179,44 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
-      <c r="I47"/>
+      <c r="I47" t="s">
+        <v>6</v>
+      </c>
       <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
+      <c r="K47" s="1">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.72419999999999995</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.90900000000000003</v>
+      </c>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S47" t="s">
+        <v>82</v>
+      </c>
+      <c r="T47" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="U47" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V47" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
+      <c r="B48" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="79"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
@@ -3671,13 +5229,27 @@
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S48" t="s">
+        <v>38</v>
+      </c>
+      <c r="T48" s="113">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="U48" s="112">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="V48" s="115">
+        <v>0.88580000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
+      <c r="B49" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="82"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
@@ -3690,84 +5262,156 @@
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S49" t="s">
+        <v>39</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0.91320000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
+      <c r="B50" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
+      <c r="J50" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="79"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S50" t="s">
+        <v>40</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0.72419999999999995</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
+      <c r="B51" s="43">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="C51" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="D51" s="62">
+        <v>0.69</v>
+      </c>
+      <c r="E51" s="64">
+        <v>0.73</v>
+      </c>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
+      <c r="J51" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="82"/>
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
+      <c r="B52" s="43">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="C52" s="56">
+        <v>0.85</v>
+      </c>
+      <c r="D52" s="56">
+        <v>0.74</v>
+      </c>
+      <c r="E52" s="57">
+        <v>0.78</v>
+      </c>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
+      <c r="J52" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
+      <c r="B53" s="44">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="C53" s="65">
+        <v>0.76</v>
+      </c>
+      <c r="D53" s="65">
+        <v>0.66</v>
+      </c>
+      <c r="E53" s="66">
+        <v>0.73</v>
+      </c>
       <c r="F53"/>
       <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
+      <c r="H53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="43"/>
+      <c r="K53" s="112">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="L53" s="113">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="M53" s="114">
+        <v>0.39860000000000001</v>
+      </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -3776,17 +5420,22 @@
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
+      <c r="I54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="43"/>
+      <c r="K54" s="113">
+        <v>0.76970000000000005</v>
+      </c>
+      <c r="L54" s="112">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="M54" s="115">
+        <v>0.91910000000000003</v>
+      </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -3794,18 +5443,25 @@
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
+      <c r="H55" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="44"/>
+      <c r="K55" s="112">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="L55" s="116">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="M55" s="117">
+        <v>0.55940000000000001</v>
+      </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -3814,74 +5470,91 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
-      <c r="I56"/>
+      <c r="I56" t="s">
+        <v>6</v>
+      </c>
       <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
+      <c r="K56" s="1">
+        <v>0.83109999999999995</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.88839999999999997</v>
+      </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
+      <c r="B57" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
+      <c r="H57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
       <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
+      <c r="B58" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="22">
+        <v>0.87</v>
+      </c>
+      <c r="D58" s="22">
+        <v>0.76</v>
+      </c>
+      <c r="E58" s="22">
+        <v>0.78</v>
+      </c>
       <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
+      <c r="I58" t="s">
+        <v>6</v>
+      </c>
       <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
+      <c r="B59" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="22">
+        <v>0.88</v>
+      </c>
+      <c r="D59" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="E59" s="22">
+        <v>0.86</v>
+      </c>
       <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
       <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -3893,19 +5566,22 @@
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
       <c r="Q60"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
+      <c r="B61" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
@@ -3919,45 +5595,51 @@
       <c r="P61"/>
       <c r="Q61"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
+      <c r="B62" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="D62" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="E62" s="22">
+        <v>0.81</v>
+      </c>
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
       <c r="Q62"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
+      <c r="B63" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="D63" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0.79</v>
+      </c>
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
       <c r="Q63"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -3969,14 +5651,9 @@
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3988,14 +5665,9 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -4007,14 +5679,9 @@
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -4026,14 +5693,9 @@
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67"/>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -4045,14 +5707,9 @@
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -4064,14 +5721,9 @@
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -4083,14 +5735,9 @@
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
       <c r="Q70"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -4109,7 +5756,7 @@
       <c r="P71"/>
       <c r="Q71"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -4128,7 +5775,7 @@
       <c r="P72"/>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -4147,7 +5794,7 @@
       <c r="P73"/>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -4166,7 +5813,7 @@
       <c r="P74"/>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -4185,7 +5832,7 @@
       <c r="P75"/>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -4204,7 +5851,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -4223,7 +5870,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -4242,7 +5889,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -4261,7 +5908,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -4280,7 +5927,7 @@
       <c r="P80"/>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -4299,7 +5946,7 @@
       <c r="P81"/>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -4318,7 +5965,7 @@
       <c r="P82"/>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -4337,7 +5984,7 @@
       <c r="P83"/>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -4356,7 +6003,7 @@
       <c r="P84"/>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -4375,7 +6022,7 @@
       <c r="P85"/>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -4394,7 +6041,7 @@
       <c r="P86"/>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -4413,7 +6060,7 @@
       <c r="P87"/>
       <c r="Q87"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -4432,7 +6079,7 @@
       <c r="P88"/>
       <c r="Q88"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -4451,7 +6098,7 @@
       <c r="P89"/>
       <c r="Q89"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -4470,7 +6117,7 @@
       <c r="P90"/>
       <c r="Q90"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -4489,7 +6136,7 @@
       <c r="P91"/>
       <c r="Q91"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -4508,7 +6155,7 @@
       <c r="P92"/>
       <c r="Q92"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -4527,7 +6174,7 @@
       <c r="P93"/>
       <c r="Q93"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -4546,7 +6193,7 @@
       <c r="P94"/>
       <c r="Q94"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -4565,7 +6212,7 @@
       <c r="P95"/>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -4584,7 +6231,7 @@
       <c r="P96"/>
       <c r="Q96"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -4603,7 +6250,7 @@
       <c r="P97"/>
       <c r="Q97"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -4622,7 +6269,7 @@
       <c r="P98"/>
       <c r="Q98"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -4641,7 +6288,7 @@
       <c r="P99"/>
       <c r="Q99"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -4660,7 +6307,7 @@
       <c r="P100"/>
       <c r="Q100"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -4679,7 +6326,7 @@
       <c r="P101"/>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -4698,7 +6345,7 @@
       <c r="P102"/>
       <c r="Q102"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -4717,7 +6364,7 @@
       <c r="P103"/>
       <c r="Q103"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -4736,7 +6383,7 @@
       <c r="P104"/>
       <c r="Q104"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -4755,7 +6402,7 @@
       <c r="P105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -4774,7 +6421,7 @@
       <c r="P106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -4793,7 +6440,7 @@
       <c r="P107"/>
       <c r="Q107"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -4812,7 +6459,7 @@
       <c r="P108"/>
       <c r="Q108"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -4831,7 +6478,7 @@
       <c r="P109"/>
       <c r="Q109"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -4850,7 +6497,7 @@
       <c r="P110"/>
       <c r="Q110"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -4869,7 +6516,7 @@
       <c r="P111"/>
       <c r="Q111"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -4888,7 +6535,7 @@
       <c r="P112"/>
       <c r="Q112"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -4907,7 +6554,7 @@
       <c r="P113"/>
       <c r="Q113"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -4926,7 +6573,7 @@
       <c r="P114"/>
       <c r="Q114"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -4945,7 +6592,7 @@
       <c r="P115"/>
       <c r="Q115"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -4964,7 +6611,7 @@
       <c r="P116"/>
       <c r="Q116"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -4983,7 +6630,7 @@
       <c r="P117"/>
       <c r="Q117"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -5002,7 +6649,7 @@
       <c r="P118"/>
       <c r="Q118"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -5021,7 +6668,7 @@
       <c r="P119"/>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -5040,7 +6687,7 @@
       <c r="P120"/>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -5059,7 +6706,7 @@
       <c r="P121"/>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -5078,7 +6725,7 @@
       <c r="P122"/>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -5097,7 +6744,7 @@
       <c r="P123"/>
       <c r="Q123"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -5116,7 +6763,7 @@
       <c r="P124"/>
       <c r="Q124"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -5135,7 +6782,7 @@
       <c r="P125"/>
       <c r="Q125"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -5154,7 +6801,7 @@
       <c r="P126"/>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -5173,7 +6820,7 @@
       <c r="P127"/>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -5192,7 +6839,7 @@
       <c r="P128"/>
       <c r="Q128"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -5211,7 +6858,7 @@
       <c r="P129"/>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -5230,7 +6877,7 @@
       <c r="P130"/>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -5249,7 +6896,7 @@
       <c r="P131"/>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -5268,7 +6915,7 @@
       <c r="P132"/>
       <c r="Q132"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -5287,7 +6934,7 @@
       <c r="P133"/>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -5306,7 +6953,7 @@
       <c r="P134"/>
       <c r="Q134"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -5325,7 +6972,7 @@
       <c r="P135"/>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -5344,7 +6991,7 @@
       <c r="P136"/>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -5363,7 +7010,7 @@
       <c r="P137"/>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -5382,7 +7029,7 @@
       <c r="P138"/>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -5401,7 +7048,7 @@
       <c r="P139"/>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -5420,7 +7067,7 @@
       <c r="P140"/>
       <c r="Q140"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -5439,7 +7086,7 @@
       <c r="P141"/>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -5458,7 +7105,7 @@
       <c r="P142"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -5477,7 +7124,7 @@
       <c r="P143"/>
       <c r="Q143"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -5496,7 +7143,7 @@
       <c r="P144"/>
       <c r="Q144"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -5515,7 +7162,7 @@
       <c r="P145"/>
       <c r="Q145"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -5534,7 +7181,7 @@
       <c r="P146"/>
       <c r="Q146"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -5553,7 +7200,7 @@
       <c r="P147"/>
       <c r="Q147"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -5572,7 +7219,7 @@
       <c r="P148"/>
       <c r="Q148"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -5591,7 +7238,7 @@
       <c r="P149"/>
       <c r="Q149"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -5610,7 +7257,7 @@
       <c r="P150"/>
       <c r="Q150"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -5629,7 +7276,7 @@
       <c r="P151"/>
       <c r="Q151"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -5648,7 +7295,7 @@
       <c r="P152"/>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -5667,7 +7314,7 @@
       <c r="P153"/>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -5686,7 +7333,7 @@
       <c r="P154"/>
       <c r="Q154"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -5705,7 +7352,7 @@
       <c r="P155"/>
       <c r="Q155"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -5724,7 +7371,7 @@
       <c r="P156"/>
       <c r="Q156"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -5743,7 +7390,7 @@
       <c r="P157"/>
       <c r="Q157"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -5762,7 +7409,7 @@
       <c r="P158"/>
       <c r="Q158"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -5781,7 +7428,7 @@
       <c r="P159"/>
       <c r="Q159"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -5800,7 +7447,7 @@
       <c r="P160"/>
       <c r="Q160"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -5819,7 +7466,7 @@
       <c r="P161"/>
       <c r="Q161"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -5838,7 +7485,7 @@
       <c r="P162"/>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -5857,7 +7504,7 @@
       <c r="P163"/>
       <c r="Q163"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -5876,7 +7523,7 @@
       <c r="P164"/>
       <c r="Q164"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -5895,7 +7542,7 @@
       <c r="P165"/>
       <c r="Q165"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -5914,7 +7561,7 @@
       <c r="P166"/>
       <c r="Q166"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
@@ -5933,7 +7580,7 @@
       <c r="P167"/>
       <c r="Q167"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -5952,7 +7599,7 @@
       <c r="P168"/>
       <c r="Q168"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -5971,7 +7618,7 @@
       <c r="P169"/>
       <c r="Q169"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -5990,7 +7637,7 @@
       <c r="P170"/>
       <c r="Q170"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -6009,7 +7656,7 @@
       <c r="P171"/>
       <c r="Q171"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -6028,7 +7675,7 @@
       <c r="P172"/>
       <c r="Q172"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -6047,7 +7694,7 @@
       <c r="P173"/>
       <c r="Q173"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -6066,7 +7713,7 @@
       <c r="P174"/>
       <c r="Q174"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -6085,7 +7732,7 @@
       <c r="P175"/>
       <c r="Q175"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -6104,7 +7751,7 @@
       <c r="P176"/>
       <c r="Q176"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -6123,7 +7770,7 @@
       <c r="P177"/>
       <c r="Q177"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
@@ -6142,7 +7789,7 @@
       <c r="P178"/>
       <c r="Q178"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -6161,7 +7808,7 @@
       <c r="P179"/>
       <c r="Q179"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
@@ -6180,7 +7827,7 @@
       <c r="P180"/>
       <c r="Q180"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
@@ -6199,7 +7846,7 @@
       <c r="P181"/>
       <c r="Q181"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
@@ -6218,7 +7865,7 @@
       <c r="P182"/>
       <c r="Q182"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -6237,7 +7884,7 @@
       <c r="P183"/>
       <c r="Q183"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
@@ -6256,7 +7903,7 @@
       <c r="P184"/>
       <c r="Q184"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
@@ -6275,7 +7922,7 @@
       <c r="P185"/>
       <c r="Q185"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
@@ -6294,7 +7941,7 @@
       <c r="P186"/>
       <c r="Q186"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
@@ -6313,7 +7960,7 @@
       <c r="P187"/>
       <c r="Q187"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -6332,7 +7979,7 @@
       <c r="P188"/>
       <c r="Q188"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -6351,7 +7998,7 @@
       <c r="P189"/>
       <c r="Q189"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
@@ -6370,7 +8017,7 @@
       <c r="P190"/>
       <c r="Q190"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -6389,7 +8036,7 @@
       <c r="P191"/>
       <c r="Q191"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
@@ -6408,7 +8055,7 @@
       <c r="P192"/>
       <c r="Q192"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
@@ -6427,7 +8074,7 @@
       <c r="P193"/>
       <c r="Q193"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
@@ -6446,7 +8093,7 @@
       <c r="P194"/>
       <c r="Q194"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
@@ -6465,7 +8112,7 @@
       <c r="P195"/>
       <c r="Q195"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
@@ -6484,7 +8131,7 @@
       <c r="P196"/>
       <c r="Q196"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
@@ -6503,7 +8150,7 @@
       <c r="P197"/>
       <c r="Q197"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
@@ -6522,7 +8169,7 @@
       <c r="P198"/>
       <c r="Q198"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
@@ -6541,7 +8188,7 @@
       <c r="P199"/>
       <c r="Q199"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -6560,7 +8207,7 @@
       <c r="P200"/>
       <c r="Q200"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
@@ -6579,7 +8226,7 @@
       <c r="P201"/>
       <c r="Q201"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
@@ -6598,7 +8245,7 @@
       <c r="P202"/>
       <c r="Q202"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -6617,7 +8264,7 @@
       <c r="P203"/>
       <c r="Q203"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
@@ -6636,7 +8283,7 @@
       <c r="P204"/>
       <c r="Q204"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -6655,7 +8302,7 @@
       <c r="P205"/>
       <c r="Q205"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -6674,7 +8321,7 @@
       <c r="P206"/>
       <c r="Q206"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
@@ -6693,7 +8340,7 @@
       <c r="P207"/>
       <c r="Q207"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -6712,7 +8359,7 @@
       <c r="P208"/>
       <c r="Q208"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -6731,7 +8378,7 @@
       <c r="P209"/>
       <c r="Q209"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -6750,7 +8397,7 @@
       <c r="P210"/>
       <c r="Q210"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -6769,7 +8416,7 @@
       <c r="P211"/>
       <c r="Q211"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -6788,7 +8435,7 @@
       <c r="P212"/>
       <c r="Q212"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -6807,7 +8454,7 @@
       <c r="P213"/>
       <c r="Q213"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -6826,7 +8473,7 @@
       <c r="P214"/>
       <c r="Q214"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -6845,7 +8492,7 @@
       <c r="P215"/>
       <c r="Q215"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -6864,7 +8511,7 @@
       <c r="P216"/>
       <c r="Q216"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -6883,7 +8530,7 @@
       <c r="P217"/>
       <c r="Q217"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -6902,7 +8549,7 @@
       <c r="P218"/>
       <c r="Q218"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
@@ -6921,7 +8568,7 @@
       <c r="P219"/>
       <c r="Q219"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
@@ -6940,7 +8587,7 @@
       <c r="P220"/>
       <c r="Q220"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -6959,7 +8606,7 @@
       <c r="P221"/>
       <c r="Q221"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -6978,7 +8625,7 @@
       <c r="P222"/>
       <c r="Q222"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -6997,7 +8644,7 @@
       <c r="P223"/>
       <c r="Q223"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
@@ -7016,7 +8663,7 @@
       <c r="P224"/>
       <c r="Q224"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
@@ -7035,7 +8682,7 @@
       <c r="P225"/>
       <c r="Q225"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -7054,7 +8701,7 @@
       <c r="P226"/>
       <c r="Q226"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -7073,7 +8720,7 @@
       <c r="P227"/>
       <c r="Q227"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
@@ -7092,7 +8739,7 @@
       <c r="P228"/>
       <c r="Q228"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
@@ -7111,7 +8758,7 @@
       <c r="P229"/>
       <c r="Q229"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
@@ -7130,7 +8777,7 @@
       <c r="P230"/>
       <c r="Q230"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
@@ -7149,7 +8796,7 @@
       <c r="P231"/>
       <c r="Q231"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
@@ -7168,7 +8815,7 @@
       <c r="P232"/>
       <c r="Q232"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
@@ -7187,7 +8834,7 @@
       <c r="P233"/>
       <c r="Q233"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
@@ -7206,7 +8853,7 @@
       <c r="P234"/>
       <c r="Q234"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
@@ -7225,7 +8872,7 @@
       <c r="P235"/>
       <c r="Q235"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
@@ -7244,7 +8891,7 @@
       <c r="P236"/>
       <c r="Q236"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
@@ -7263,7 +8910,7 @@
       <c r="P237"/>
       <c r="Q237"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
@@ -7282,7 +8929,7 @@
       <c r="P238"/>
       <c r="Q238"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
@@ -7301,7 +8948,7 @@
       <c r="P239"/>
       <c r="Q239"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
@@ -7320,7 +8967,7 @@
       <c r="P240"/>
       <c r="Q240"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
@@ -7339,7 +8986,7 @@
       <c r="P241"/>
       <c r="Q241"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
@@ -7358,7 +9005,7 @@
       <c r="P242"/>
       <c r="Q242"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
@@ -7377,7 +9024,7 @@
       <c r="P243"/>
       <c r="Q243"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
@@ -7396,7 +9043,7 @@
       <c r="P244"/>
       <c r="Q244"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
@@ -7415,7 +9062,7 @@
       <c r="P245"/>
       <c r="Q245"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
@@ -7434,7 +9081,7 @@
       <c r="P246"/>
       <c r="Q246"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
@@ -7453,7 +9100,7 @@
       <c r="P247"/>
       <c r="Q247"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
@@ -7472,7 +9119,7 @@
       <c r="P248"/>
       <c r="Q248"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
@@ -7491,7 +9138,7 @@
       <c r="P249"/>
       <c r="Q249"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
@@ -7510,7 +9157,7 @@
       <c r="P250"/>
       <c r="Q250"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
@@ -7529,7 +9176,7 @@
       <c r="P251"/>
       <c r="Q251"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
@@ -7548,7 +9195,7 @@
       <c r="P252"/>
       <c r="Q252"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
@@ -7567,7 +9214,7 @@
       <c r="P253"/>
       <c r="Q253"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
@@ -7586,7 +9233,7 @@
       <c r="P254"/>
       <c r="Q254"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
@@ -7605,7 +9252,7 @@
       <c r="P255"/>
       <c r="Q255"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
@@ -7624,7 +9271,7 @@
       <c r="P256"/>
       <c r="Q256"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
@@ -7643,7 +9290,7 @@
       <c r="P257"/>
       <c r="Q257"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
@@ -7662,7 +9309,7 @@
       <c r="P258"/>
       <c r="Q258"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
@@ -7681,7 +9328,7 @@
       <c r="P259"/>
       <c r="Q259"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
@@ -7700,7 +9347,7 @@
       <c r="P260"/>
       <c r="Q260"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
@@ -7719,7 +9366,7 @@
       <c r="P261"/>
       <c r="Q261"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
@@ -7738,7 +9385,7 @@
       <c r="P262"/>
       <c r="Q262"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
@@ -7757,7 +9404,7 @@
       <c r="P263"/>
       <c r="Q263"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
@@ -7776,7 +9423,7 @@
       <c r="P264"/>
       <c r="Q264"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
@@ -7795,7 +9442,7 @@
       <c r="P265"/>
       <c r="Q265"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
@@ -7814,7 +9461,7 @@
       <c r="P266"/>
       <c r="Q266"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
@@ -7833,7 +9480,7 @@
       <c r="P267"/>
       <c r="Q267"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
@@ -7852,7 +9499,7 @@
       <c r="P268"/>
       <c r="Q268"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
@@ -7871,7 +9518,7 @@
       <c r="P269"/>
       <c r="Q269"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
@@ -7890,7 +9537,7 @@
       <c r="P270"/>
       <c r="Q270"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
@@ -7909,7 +9556,7 @@
       <c r="P271"/>
       <c r="Q271"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
@@ -7928,7 +9575,7 @@
       <c r="P272"/>
       <c r="Q272"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
@@ -7947,7 +9594,7 @@
       <c r="P273"/>
       <c r="Q273"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
@@ -7966,7 +9613,7 @@
       <c r="P274"/>
       <c r="Q274"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
@@ -7985,7 +9632,7 @@
       <c r="P275"/>
       <c r="Q275"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
@@ -8004,7 +9651,7 @@
       <c r="P276"/>
       <c r="Q276"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
@@ -8023,7 +9670,7 @@
       <c r="P277"/>
       <c r="Q277"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
@@ -8042,7 +9689,7 @@
       <c r="P278"/>
       <c r="Q278"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
@@ -8061,7 +9708,7 @@
       <c r="P279"/>
       <c r="Q279"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
@@ -8080,7 +9727,7 @@
       <c r="P280"/>
       <c r="Q280"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
@@ -8099,7 +9746,7 @@
       <c r="P281"/>
       <c r="Q281"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
@@ -8118,7 +9765,7 @@
       <c r="P282"/>
       <c r="Q282"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
@@ -8137,7 +9784,7 @@
       <c r="P283"/>
       <c r="Q283"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
@@ -8156,7 +9803,7 @@
       <c r="P284"/>
       <c r="Q284"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
@@ -8175,7 +9822,7 @@
       <c r="P285"/>
       <c r="Q285"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
@@ -8194,7 +9841,7 @@
       <c r="P286"/>
       <c r="Q286"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
@@ -8213,7 +9860,7 @@
       <c r="P287"/>
       <c r="Q287"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
@@ -8232,7 +9879,7 @@
       <c r="P288"/>
       <c r="Q288"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
@@ -8251,7 +9898,7 @@
       <c r="P289"/>
       <c r="Q289"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
@@ -8270,7 +9917,7 @@
       <c r="P290"/>
       <c r="Q290"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
@@ -8289,7 +9936,7 @@
       <c r="P291"/>
       <c r="Q291"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
@@ -8308,7 +9955,7 @@
       <c r="P292"/>
       <c r="Q292"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
@@ -8327,7 +9974,7 @@
       <c r="P293"/>
       <c r="Q293"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
@@ -8346,7 +9993,7 @@
       <c r="P294"/>
       <c r="Q294"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
@@ -8365,7 +10012,7 @@
       <c r="P295"/>
       <c r="Q295"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
@@ -8384,7 +10031,7 @@
       <c r="P296"/>
       <c r="Q296"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
@@ -8403,7 +10050,7 @@
       <c r="P297"/>
       <c r="Q297"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
@@ -8422,7 +10069,7 @@
       <c r="P298"/>
       <c r="Q298"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
@@ -8441,7 +10088,7 @@
       <c r="P299"/>
       <c r="Q299"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
@@ -8460,7 +10107,7 @@
       <c r="P300"/>
       <c r="Q300"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
@@ -8479,7 +10126,7 @@
       <c r="P301"/>
       <c r="Q301"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
@@ -8498,7 +10145,7 @@
       <c r="P302"/>
       <c r="Q302"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
@@ -8517,7 +10164,7 @@
       <c r="P303"/>
       <c r="Q303"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
@@ -8536,7 +10183,7 @@
       <c r="P304"/>
       <c r="Q304"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
@@ -8555,7 +10202,7 @@
       <c r="P305"/>
       <c r="Q305"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
@@ -8574,7 +10221,7 @@
       <c r="P306"/>
       <c r="Q306"/>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
@@ -8593,7 +10240,7 @@
       <c r="P307"/>
       <c r="Q307"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
@@ -8612,7 +10259,7 @@
       <c r="P308"/>
       <c r="Q308"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
@@ -8631,7 +10278,7 @@
       <c r="P309"/>
       <c r="Q309"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
@@ -8650,7 +10297,7 @@
       <c r="P310"/>
       <c r="Q310"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
@@ -8669,7 +10316,7 @@
       <c r="P311"/>
       <c r="Q311"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A312"/>
       <c r="B312"/>
       <c r="C312"/>
@@ -8688,7 +10335,7 @@
       <c r="P312"/>
       <c r="Q312"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
@@ -8707,7 +10354,7 @@
       <c r="P313"/>
       <c r="Q313"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A314"/>
       <c r="B314"/>
       <c r="C314"/>
@@ -8726,7 +10373,7 @@
       <c r="P314"/>
       <c r="Q314"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
@@ -8745,7 +10392,7 @@
       <c r="P315"/>
       <c r="Q315"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A316"/>
       <c r="B316"/>
       <c r="C316"/>
@@ -8764,7 +10411,7 @@
       <c r="P316"/>
       <c r="Q316"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
@@ -8783,7 +10430,7 @@
       <c r="P317"/>
       <c r="Q317"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A318"/>
       <c r="B318"/>
       <c r="C318"/>
@@ -8802,7 +10449,7 @@
       <c r="P318"/>
       <c r="Q318"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
@@ -8821,7 +10468,7 @@
       <c r="P319"/>
       <c r="Q319"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A320"/>
       <c r="B320"/>
       <c r="C320"/>
@@ -8840,7 +10487,7 @@
       <c r="P320"/>
       <c r="Q320"/>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
@@ -8859,7 +10506,7 @@
       <c r="P321"/>
       <c r="Q321"/>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A322"/>
       <c r="B322"/>
       <c r="C322"/>
@@ -8878,7 +10525,7 @@
       <c r="P322"/>
       <c r="Q322"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
@@ -8897,7 +10544,7 @@
       <c r="P323"/>
       <c r="Q323"/>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A324"/>
       <c r="B324"/>
       <c r="C324"/>
@@ -8916,7 +10563,7 @@
       <c r="P324"/>
       <c r="Q324"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A325"/>
       <c r="B325"/>
       <c r="C325"/>
@@ -8935,7 +10582,7 @@
       <c r="P325"/>
       <c r="Q325"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A326"/>
       <c r="B326"/>
       <c r="C326"/>
@@ -8954,7 +10601,7 @@
       <c r="P326"/>
       <c r="Q326"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A327"/>
       <c r="B327"/>
       <c r="C327"/>
@@ -8973,7 +10620,7 @@
       <c r="P327"/>
       <c r="Q327"/>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
@@ -8992,7 +10639,7 @@
       <c r="P328"/>
       <c r="Q328"/>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
@@ -9011,7 +10658,7 @@
       <c r="P329"/>
       <c r="Q329"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
@@ -9030,7 +10677,7 @@
       <c r="P330"/>
       <c r="Q330"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
@@ -9049,7 +10696,7 @@
       <c r="P331"/>
       <c r="Q331"/>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
@@ -9068,7 +10715,7 @@
       <c r="P332"/>
       <c r="Q332"/>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
@@ -9087,7 +10734,7 @@
       <c r="P333"/>
       <c r="Q333"/>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
@@ -9106,7 +10753,7 @@
       <c r="P334"/>
       <c r="Q334"/>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
@@ -9125,7 +10772,7 @@
       <c r="P335"/>
       <c r="Q335"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
@@ -9144,7 +10791,7 @@
       <c r="P336"/>
       <c r="Q336"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
@@ -9163,7 +10810,7 @@
       <c r="P337"/>
       <c r="Q337"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
@@ -9182,7 +10829,7 @@
       <c r="P338"/>
       <c r="Q338"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
@@ -9201,7 +10848,7 @@
       <c r="P339"/>
       <c r="Q339"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
@@ -9220,7 +10867,7 @@
       <c r="P340"/>
       <c r="Q340"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
@@ -9239,7 +10886,7 @@
       <c r="P341"/>
       <c r="Q341"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
@@ -9258,7 +10905,7 @@
       <c r="P342"/>
       <c r="Q342"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
@@ -9277,7 +10924,7 @@
       <c r="P343"/>
       <c r="Q343"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
@@ -9296,7 +10943,7 @@
       <c r="P344"/>
       <c r="Q344"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
@@ -9315,7 +10962,7 @@
       <c r="P345"/>
       <c r="Q345"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
@@ -9334,7 +10981,7 @@
       <c r="P346"/>
       <c r="Q346"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
@@ -9353,7 +11000,7 @@
       <c r="P347"/>
       <c r="Q347"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
@@ -9372,7 +11019,7 @@
       <c r="P348"/>
       <c r="Q348"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
@@ -9391,7 +11038,7 @@
       <c r="P349"/>
       <c r="Q349"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
@@ -9410,7 +11057,7 @@
       <c r="P350"/>
       <c r="Q350"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
@@ -9429,7 +11076,7 @@
       <c r="P351"/>
       <c r="Q351"/>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
@@ -9448,7 +11095,7 @@
       <c r="P352"/>
       <c r="Q352"/>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
@@ -9467,7 +11114,7 @@
       <c r="P353"/>
       <c r="Q353"/>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
@@ -9486,7 +11133,7 @@
       <c r="P354"/>
       <c r="Q354"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
@@ -9505,7 +11152,7 @@
       <c r="P355"/>
       <c r="Q355"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
@@ -9524,7 +11171,7 @@
       <c r="P356"/>
       <c r="Q356"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
@@ -9543,7 +11190,7 @@
       <c r="P357"/>
       <c r="Q357"/>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
@@ -9562,7 +11209,7 @@
       <c r="P358"/>
       <c r="Q358"/>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
@@ -9581,7 +11228,7 @@
       <c r="P359"/>
       <c r="Q359"/>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
@@ -9600,7 +11247,7 @@
       <c r="P360"/>
       <c r="Q360"/>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
@@ -9619,7 +11266,7 @@
       <c r="P361"/>
       <c r="Q361"/>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
@@ -9638,7 +11285,7 @@
       <c r="P362"/>
       <c r="Q362"/>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
@@ -9657,7 +11304,7 @@
       <c r="P363"/>
       <c r="Q363"/>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
@@ -9676,7 +11323,7 @@
       <c r="P364"/>
       <c r="Q364"/>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
@@ -9695,7 +11342,7 @@
       <c r="P365"/>
       <c r="Q365"/>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
@@ -9714,7 +11361,7 @@
       <c r="P366"/>
       <c r="Q366"/>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
@@ -9733,7 +11380,7 @@
       <c r="P367"/>
       <c r="Q367"/>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
@@ -9752,7 +11399,7 @@
       <c r="P368"/>
       <c r="Q368"/>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
@@ -9771,7 +11418,7 @@
       <c r="P369"/>
       <c r="Q369"/>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
@@ -9790,7 +11437,7 @@
       <c r="P370"/>
       <c r="Q370"/>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
@@ -9809,7 +11456,7 @@
       <c r="P371"/>
       <c r="Q371"/>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
@@ -9828,7 +11475,7 @@
       <c r="P372"/>
       <c r="Q372"/>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
@@ -9847,7 +11494,7 @@
       <c r="P373"/>
       <c r="Q373"/>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
@@ -9866,7 +11513,7 @@
       <c r="P374"/>
       <c r="Q374"/>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
@@ -9885,7 +11532,7 @@
       <c r="P375"/>
       <c r="Q375"/>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
@@ -9904,7 +11551,7 @@
       <c r="P376"/>
       <c r="Q376"/>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
@@ -9923,7 +11570,7 @@
       <c r="P377"/>
       <c r="Q377"/>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
@@ -9942,7 +11589,7 @@
       <c r="P378"/>
       <c r="Q378"/>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
@@ -9961,7 +11608,7 @@
       <c r="P379"/>
       <c r="Q379"/>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
@@ -9980,7 +11627,7 @@
       <c r="P380"/>
       <c r="Q380"/>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
@@ -9999,7 +11646,7 @@
       <c r="P381"/>
       <c r="Q381"/>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
@@ -10018,7 +11665,7 @@
       <c r="P382"/>
       <c r="Q382"/>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
@@ -10037,7 +11684,7 @@
       <c r="P383"/>
       <c r="Q383"/>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
@@ -10056,7 +11703,7 @@
       <c r="P384"/>
       <c r="Q384"/>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
@@ -10075,7 +11722,7 @@
       <c r="P385"/>
       <c r="Q385"/>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
@@ -10094,7 +11741,7 @@
       <c r="P386"/>
       <c r="Q386"/>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
@@ -10113,7 +11760,7 @@
       <c r="P387"/>
       <c r="Q387"/>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
@@ -10132,7 +11779,7 @@
       <c r="P388"/>
       <c r="Q388"/>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
@@ -10151,7 +11798,7 @@
       <c r="P389"/>
       <c r="Q389"/>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
@@ -10170,7 +11817,7 @@
       <c r="P390"/>
       <c r="Q390"/>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
@@ -10189,7 +11836,7 @@
       <c r="P391"/>
       <c r="Q391"/>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
@@ -10208,7 +11855,7 @@
       <c r="P392"/>
       <c r="Q392"/>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
@@ -10227,7 +11874,7 @@
       <c r="P393"/>
       <c r="Q393"/>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
@@ -10246,7 +11893,7 @@
       <c r="P394"/>
       <c r="Q394"/>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
@@ -10265,7 +11912,7 @@
       <c r="P395"/>
       <c r="Q395"/>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
@@ -10284,7 +11931,7 @@
       <c r="P396"/>
       <c r="Q396"/>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
@@ -10303,7 +11950,7 @@
       <c r="P397"/>
       <c r="Q397"/>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A398"/>
       <c r="B398"/>
       <c r="C398"/>
@@ -10322,7 +11969,7 @@
       <c r="P398"/>
       <c r="Q398"/>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A399"/>
       <c r="B399"/>
       <c r="C399"/>
@@ -10341,7 +11988,7 @@
       <c r="P399"/>
       <c r="Q399"/>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A400"/>
       <c r="B400"/>
       <c r="C400"/>
@@ -10360,7 +12007,7 @@
       <c r="P400"/>
       <c r="Q400"/>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A401"/>
       <c r="B401"/>
       <c r="C401"/>
@@ -10379,7 +12026,7 @@
       <c r="P401"/>
       <c r="Q401"/>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
@@ -10398,7 +12045,7 @@
       <c r="P402"/>
       <c r="Q402"/>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A403"/>
       <c r="B403"/>
       <c r="C403"/>
@@ -10417,7 +12064,7 @@
       <c r="P403"/>
       <c r="Q403"/>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A404"/>
       <c r="B404"/>
       <c r="C404"/>
@@ -10436,7 +12083,7 @@
       <c r="P404"/>
       <c r="Q404"/>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A405"/>
       <c r="B405"/>
       <c r="C405"/>
@@ -10455,7 +12102,7 @@
       <c r="P405"/>
       <c r="Q405"/>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A406"/>
       <c r="B406"/>
       <c r="C406"/>
@@ -10474,7 +12121,7 @@
       <c r="P406"/>
       <c r="Q406"/>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A407"/>
       <c r="B407"/>
       <c r="C407"/>
@@ -10493,7 +12140,7 @@
       <c r="P407"/>
       <c r="Q407"/>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A408"/>
       <c r="B408"/>
       <c r="C408"/>
@@ -10512,7 +12159,7 @@
       <c r="P408"/>
       <c r="Q408"/>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A409"/>
       <c r="B409"/>
       <c r="C409"/>
@@ -10531,7 +12178,7 @@
       <c r="P409"/>
       <c r="Q409"/>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A410"/>
       <c r="B410"/>
       <c r="C410"/>
@@ -10550,7 +12197,7 @@
       <c r="P410"/>
       <c r="Q410"/>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A411"/>
       <c r="B411"/>
       <c r="C411"/>
@@ -10569,7 +12216,7 @@
       <c r="P411"/>
       <c r="Q411"/>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A412"/>
       <c r="B412"/>
       <c r="C412"/>
@@ -10588,7 +12235,7 @@
       <c r="P412"/>
       <c r="Q412"/>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A413"/>
       <c r="B413"/>
       <c r="C413"/>
@@ -10607,7 +12254,7 @@
       <c r="P413"/>
       <c r="Q413"/>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A414"/>
       <c r="B414"/>
       <c r="C414"/>
@@ -10626,7 +12273,7 @@
       <c r="P414"/>
       <c r="Q414"/>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
@@ -10645,7 +12292,7 @@
       <c r="P415"/>
       <c r="Q415"/>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
@@ -10664,7 +12311,7 @@
       <c r="P416"/>
       <c r="Q416"/>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
@@ -10683,7 +12330,7 @@
       <c r="P417"/>
       <c r="Q417"/>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
@@ -10702,7 +12349,7 @@
       <c r="P418"/>
       <c r="Q418"/>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
@@ -10721,7 +12368,7 @@
       <c r="P419"/>
       <c r="Q419"/>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
@@ -10740,7 +12387,7 @@
       <c r="P420"/>
       <c r="Q420"/>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
@@ -10759,7 +12406,7 @@
       <c r="P421"/>
       <c r="Q421"/>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
@@ -10778,7 +12425,7 @@
       <c r="P422"/>
       <c r="Q422"/>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
@@ -10797,7 +12444,7 @@
       <c r="P423"/>
       <c r="Q423"/>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
@@ -10816,7 +12463,7 @@
       <c r="P424"/>
       <c r="Q424"/>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
@@ -10835,7 +12482,7 @@
       <c r="P425"/>
       <c r="Q425"/>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
@@ -10854,7 +12501,7 @@
       <c r="P426"/>
       <c r="Q426"/>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
@@ -10873,7 +12520,7 @@
       <c r="P427"/>
       <c r="Q427"/>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
@@ -10892,7 +12539,7 @@
       <c r="P428"/>
       <c r="Q428"/>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
@@ -10911,7 +12558,7 @@
       <c r="P429"/>
       <c r="Q429"/>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
@@ -10930,7 +12577,7 @@
       <c r="P430"/>
       <c r="Q430"/>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
@@ -10949,7 +12596,7 @@
       <c r="P431"/>
       <c r="Q431"/>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
@@ -10968,7 +12615,7 @@
       <c r="P432"/>
       <c r="Q432"/>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
@@ -10987,7 +12634,7 @@
       <c r="P433"/>
       <c r="Q433"/>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
@@ -11006,7 +12653,7 @@
       <c r="P434"/>
       <c r="Q434"/>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
@@ -11025,7 +12672,7 @@
       <c r="P435"/>
       <c r="Q435"/>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
@@ -11044,7 +12691,7 @@
       <c r="P436"/>
       <c r="Q436"/>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
@@ -11063,7 +12710,7 @@
       <c r="P437"/>
       <c r="Q437"/>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
@@ -11082,7 +12729,7 @@
       <c r="P438"/>
       <c r="Q438"/>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
@@ -11101,7 +12748,7 @@
       <c r="P439"/>
       <c r="Q439"/>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
@@ -11120,7 +12767,7 @@
       <c r="P440"/>
       <c r="Q440"/>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
@@ -11139,7 +12786,7 @@
       <c r="P441"/>
       <c r="Q441"/>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
@@ -11158,7 +12805,7 @@
       <c r="P442"/>
       <c r="Q442"/>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
@@ -11177,7 +12824,7 @@
       <c r="P443"/>
       <c r="Q443"/>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
@@ -11196,7 +12843,7 @@
       <c r="P444"/>
       <c r="Q444"/>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
@@ -11215,7 +12862,7 @@
       <c r="P445"/>
       <c r="Q445"/>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
@@ -11234,7 +12881,7 @@
       <c r="P446"/>
       <c r="Q446"/>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
@@ -11253,7 +12900,7 @@
       <c r="P447"/>
       <c r="Q447"/>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
@@ -11272,7 +12919,7 @@
       <c r="P448"/>
       <c r="Q448"/>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
@@ -11291,8 +12938,232 @@
       <c r="P449"/>
       <c r="Q449"/>
     </row>
+    <row r="450" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A450"/>
+      <c r="B450"/>
+      <c r="C450"/>
+      <c r="D450"/>
+      <c r="E450"/>
+      <c r="F450"/>
+      <c r="G450"/>
+      <c r="H450"/>
+      <c r="I450"/>
+      <c r="J450"/>
+      <c r="K450"/>
+      <c r="L450"/>
+      <c r="M450"/>
+      <c r="N450"/>
+      <c r="O450"/>
+      <c r="P450"/>
+      <c r="Q450"/>
+    </row>
+    <row r="451" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A451"/>
+      <c r="B451"/>
+      <c r="C451"/>
+      <c r="D451"/>
+      <c r="E451"/>
+      <c r="F451"/>
+      <c r="G451"/>
+      <c r="H451"/>
+      <c r="I451"/>
+      <c r="J451"/>
+      <c r="K451"/>
+      <c r="L451"/>
+      <c r="M451"/>
+      <c r="N451"/>
+      <c r="O451"/>
+      <c r="P451"/>
+      <c r="Q451"/>
+    </row>
+    <row r="452" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A452"/>
+      <c r="B452"/>
+      <c r="C452"/>
+      <c r="D452"/>
+      <c r="E452"/>
+      <c r="F452"/>
+      <c r="G452"/>
+      <c r="H452"/>
+      <c r="I452"/>
+      <c r="J452"/>
+      <c r="K452"/>
+      <c r="L452"/>
+      <c r="M452"/>
+      <c r="N452"/>
+      <c r="O452"/>
+      <c r="P452"/>
+      <c r="Q452"/>
+    </row>
+    <row r="453" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A453"/>
+      <c r="B453"/>
+      <c r="C453"/>
+      <c r="D453"/>
+      <c r="E453"/>
+      <c r="F453"/>
+      <c r="G453"/>
+      <c r="H453"/>
+      <c r="I453"/>
+      <c r="J453"/>
+      <c r="K453"/>
+      <c r="L453"/>
+      <c r="M453"/>
+      <c r="N453"/>
+      <c r="O453"/>
+      <c r="P453"/>
+      <c r="Q453"/>
+    </row>
+    <row r="454" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A454"/>
+      <c r="B454"/>
+      <c r="C454"/>
+      <c r="D454"/>
+      <c r="E454"/>
+      <c r="F454"/>
+      <c r="G454"/>
+      <c r="H454"/>
+      <c r="I454"/>
+      <c r="J454"/>
+      <c r="K454"/>
+      <c r="L454"/>
+      <c r="M454"/>
+      <c r="N454"/>
+      <c r="O454"/>
+      <c r="P454"/>
+      <c r="Q454"/>
+    </row>
+    <row r="455" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A455"/>
+      <c r="B455"/>
+      <c r="C455"/>
+      <c r="D455"/>
+      <c r="E455"/>
+      <c r="F455"/>
+      <c r="G455"/>
+      <c r="H455"/>
+      <c r="I455"/>
+      <c r="J455"/>
+      <c r="K455"/>
+      <c r="L455"/>
+      <c r="M455"/>
+      <c r="N455"/>
+      <c r="O455"/>
+      <c r="P455"/>
+      <c r="Q455"/>
+    </row>
+    <row r="456" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A456"/>
+      <c r="B456"/>
+      <c r="C456"/>
+      <c r="D456"/>
+      <c r="E456"/>
+      <c r="F456"/>
+      <c r="G456"/>
+      <c r="H456"/>
+      <c r="I456"/>
+      <c r="J456"/>
+      <c r="K456"/>
+      <c r="L456"/>
+      <c r="M456"/>
+      <c r="N456"/>
+      <c r="O456"/>
+      <c r="P456"/>
+      <c r="Q456"/>
+    </row>
+    <row r="457" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A457"/>
+      <c r="B457"/>
+      <c r="C457"/>
+      <c r="D457"/>
+      <c r="E457"/>
+      <c r="F457"/>
+      <c r="G457"/>
+      <c r="H457"/>
+      <c r="I457"/>
+      <c r="J457"/>
+      <c r="K457"/>
+      <c r="L457"/>
+      <c r="M457"/>
+      <c r="N457"/>
+      <c r="O457"/>
+      <c r="P457"/>
+      <c r="Q457"/>
+    </row>
+    <row r="458" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A458"/>
+      <c r="B458"/>
+      <c r="C458"/>
+      <c r="D458"/>
+      <c r="E458"/>
+      <c r="F458"/>
+      <c r="G458"/>
+      <c r="H458"/>
+      <c r="I458"/>
+      <c r="J458"/>
+      <c r="K458"/>
+      <c r="L458"/>
+      <c r="M458"/>
+      <c r="N458"/>
+      <c r="O458"/>
+      <c r="P458"/>
+      <c r="Q458"/>
+    </row>
+    <row r="459" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A459"/>
+      <c r="B459"/>
+      <c r="C459"/>
+      <c r="D459"/>
+      <c r="E459"/>
+      <c r="F459"/>
+      <c r="G459"/>
+      <c r="H459"/>
+      <c r="I459"/>
+      <c r="J459"/>
+      <c r="K459"/>
+      <c r="L459"/>
+      <c r="M459"/>
+      <c r="N459"/>
+      <c r="O459"/>
+      <c r="P459"/>
+      <c r="Q459"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="46">
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A8:Q9"/>
     <mergeCell ref="N12:Q12"/>
@@ -11305,17 +13176,10 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11324,25 +13188,25 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="31"/>
-    <col min="5" max="5" width="9.140625" style="18"/>
-    <col min="6" max="6" width="9.140625" style="30"/>
-    <col min="7" max="7" width="9.140625" style="31"/>
-    <col min="8" max="8" width="9.140625" style="18"/>
-    <col min="9" max="9" width="9.140625" style="30"/>
-    <col min="10" max="10" width="9.140625" style="31"/>
-    <col min="11" max="11" width="9.140625" style="18"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="31"/>
+    <col min="5" max="5" width="9.1796875" style="18"/>
+    <col min="6" max="6" width="9.1796875" style="30"/>
+    <col min="7" max="7" width="9.1796875" style="31"/>
+    <col min="8" max="8" width="9.1796875" style="18"/>
+    <col min="9" max="9" width="9.1796875" style="30"/>
+    <col min="10" max="10" width="9.1796875" style="31"/>
+    <col min="11" max="11" width="9.1796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="53"/>
       <c r="B1" s="20"/>
       <c r="C1" s="92" t="s">
@@ -11361,7 +13225,7 @@
       <c r="J1" s="93"/>
       <c r="K1" s="94"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="95" t="s">
         <v>46</v>
       </c>
@@ -11399,7 +13263,7 @@
         <v>1.8287037037037074E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="96"/>
       <c r="B3" s="18" t="s">
         <v>49</v>
@@ -11435,7 +13299,7 @@
         <v>9.2592592592533052E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
       <c r="B4" s="18" t="s">
         <v>50</v>
@@ -11471,7 +13335,7 @@
         <v>2.7893518518518068E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="96"/>
       <c r="B5" s="18" t="s">
         <v>51</v>
@@ -11507,7 +13371,7 @@
         <v>1.6898148148147829E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" s="18" t="s">
         <v>52</v>
@@ -11543,10 +13407,10 @@
         <v>8.1018518518494176E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="96"/>
       <c r="B7" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="28">
         <v>1.0069444444444444E-3</v>
@@ -11579,10 +13443,10 @@
         <v>1.574074074074075E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="96"/>
       <c r="B8" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="28">
         <v>0.91982638888888879</v>
@@ -11615,10 +13479,10 @@
         <v>1.782407407407538E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="96"/>
       <c r="B9" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="28">
         <v>0.44444444444444442</v>
@@ -11651,7 +13515,7 @@
         <v>2.4652777777777191E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="96"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
@@ -11672,13 +13536,13 @@
         <v>1.537905092592582E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="54"/>
       <c r="E11" s="27"/>
       <c r="H11" s="27"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="97" t="s">
         <v>48</v>
       </c>
@@ -11716,7 +13580,7 @@
         <v>2.5462962962962965E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="98"/>
       <c r="B13" s="18" t="s">
         <v>49</v>
@@ -11752,7 +13616,7 @@
         <v>3.8194444444439313E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="98"/>
       <c r="B14" s="18" t="s">
         <v>50</v>
@@ -11788,7 +13652,7 @@
         <v>4.9189814814813992E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="98"/>
       <c r="B15" s="18" t="s">
         <v>51</v>
@@ -11824,7 +13688,7 @@
         <v>2.9861111111111338E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="98"/>
       <c r="B16" s="18" t="s">
         <v>52</v>
@@ -11860,10 +13724,10 @@
         <v>4.3981481481480955E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="98"/>
       <c r="B17" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" s="28">
         <v>0.99383101851851852</v>
@@ -11896,10 +13760,10 @@
         <v>2.025462962962965E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="98"/>
       <c r="B18" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="28">
         <v>0.91289351851851863</v>
@@ -11932,10 +13796,10 @@
         <v>3.0787037037036669E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="98"/>
       <c r="B19" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="28">
         <v>0.43958333333333338</v>
@@ -11968,7 +13832,7 @@
         <v>4.2476851851852016E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55"/>
       <c r="B20" s="26"/>
       <c r="C20" s="40"/>
@@ -11990,22 +13854,22 @@
         <v>2.5781249999999832E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E21" s="27"/>
       <c r="H21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E22" s="27"/>
       <c r="H22" s="27"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E23" s="27"/>
       <c r="H23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E24" s="27"/>
       <c r="H24" s="27"/>
     </row>
